--- a/CiRT publication/CqValues.xlsx
+++ b/CiRT publication/CqValues.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christinak/Desktop/Rprojects/CurrentWork/22NOV21/Publications/IO_Publication/Version3.6/Online Table/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christinak/Desktop/Rprojects/CurrentWork/22NOV21/Publications/IO_Publication/Version3.8/Online Table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650EC627-6DF6-AD4D-BFA5-DB93556436E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DA6F23-6061-6944-8DC0-A588F4515278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,701 +57,701 @@
     <t>obd189-q81.q83-p81</t>
   </si>
   <si>
-    <t>iola0098</t>
-  </si>
-  <si>
-    <t>iola0105</t>
-  </si>
-  <si>
-    <t>iola0107</t>
-  </si>
-  <si>
-    <t>iola0109</t>
-  </si>
-  <si>
-    <t>iola0113</t>
-  </si>
-  <si>
-    <t>iola0120</t>
-  </si>
-  <si>
-    <t>iola0123</t>
-  </si>
-  <si>
-    <t>iola0126</t>
-  </si>
-  <si>
-    <t>iola0134</t>
-  </si>
-  <si>
-    <t>iola0151</t>
-  </si>
-  <si>
-    <t>ioma002</t>
-  </si>
-  <si>
-    <t>ioma004</t>
-  </si>
-  <si>
-    <t>ioma006</t>
-  </si>
-  <si>
-    <t>ioma007</t>
-  </si>
-  <si>
-    <t>ioma011</t>
-  </si>
-  <si>
-    <t>ioma013</t>
-  </si>
-  <si>
-    <t>ioma014</t>
-  </si>
-  <si>
-    <t>ioma019</t>
-  </si>
-  <si>
-    <t>ioma021</t>
-  </si>
-  <si>
-    <t>ioma022</t>
-  </si>
-  <si>
-    <t>ioma025</t>
-  </si>
-  <si>
-    <t>ioma028</t>
-  </si>
-  <si>
-    <t>ioma030</t>
-  </si>
-  <si>
-    <t>ioma039</t>
-  </si>
-  <si>
-    <t>ioma040</t>
-  </si>
-  <si>
-    <t>ioma042</t>
-  </si>
-  <si>
-    <t>ioma045</t>
-  </si>
-  <si>
-    <t>ioma049</t>
-  </si>
-  <si>
-    <t>ioma050</t>
-  </si>
-  <si>
-    <t>ioma052</t>
-  </si>
-  <si>
-    <t>ioma053</t>
-  </si>
-  <si>
-    <t>ioma056</t>
-  </si>
-  <si>
-    <t>ioma058</t>
-  </si>
-  <si>
-    <t>ioma062</t>
-  </si>
-  <si>
-    <t>ioma067</t>
-  </si>
-  <si>
-    <t>ioma069</t>
-  </si>
-  <si>
-    <t>ioma072</t>
-  </si>
-  <si>
-    <t>ioma080</t>
-  </si>
-  <si>
-    <t>ioma082</t>
-  </si>
-  <si>
-    <t>ioma087</t>
-  </si>
-  <si>
-    <t>ioma088</t>
-  </si>
-  <si>
-    <t>ioma091</t>
-  </si>
-  <si>
-    <t>ioma097</t>
-  </si>
-  <si>
-    <t>ioma098</t>
-  </si>
-  <si>
-    <t>lcma005</t>
-  </si>
-  <si>
-    <t>lcma006</t>
-  </si>
-  <si>
-    <t>lcma014</t>
-  </si>
-  <si>
-    <t>lcma021</t>
-  </si>
-  <si>
-    <t>lcma044</t>
-  </si>
-  <si>
-    <t>lcma049</t>
-  </si>
-  <si>
-    <t>lcma050</t>
-  </si>
-  <si>
-    <t>lcma052</t>
-  </si>
-  <si>
-    <t>lcma055</t>
-  </si>
-  <si>
-    <t>lcma058</t>
-  </si>
-  <si>
-    <t>lcma059</t>
-  </si>
-  <si>
-    <t>lcma063</t>
-  </si>
-  <si>
-    <t>lcma066</t>
-  </si>
-  <si>
-    <t>lcma075</t>
-  </si>
-  <si>
-    <t>lcma084</t>
-  </si>
-  <si>
-    <t>lcma088</t>
-  </si>
-  <si>
-    <t>lcma089</t>
-  </si>
-  <si>
-    <t>lcma093</t>
-  </si>
-  <si>
-    <t>lcma102</t>
-  </si>
-  <si>
-    <t>iola0110</t>
-  </si>
-  <si>
-    <t>iola0111</t>
-  </si>
-  <si>
-    <t>iola0147</t>
-  </si>
-  <si>
-    <t>ioma017</t>
-  </si>
-  <si>
-    <t>ioma023</t>
-  </si>
-  <si>
-    <t>ioma024</t>
-  </si>
-  <si>
-    <t>ioma033</t>
-  </si>
-  <si>
-    <t>ioma057</t>
-  </si>
-  <si>
-    <t>ioma060</t>
-  </si>
-  <si>
-    <t>ioma063</t>
-  </si>
-  <si>
-    <t>ioma075</t>
-  </si>
-  <si>
-    <t>ioma085</t>
-  </si>
-  <si>
-    <t>ioma092</t>
-  </si>
-  <si>
-    <t>ioma095</t>
-  </si>
-  <si>
-    <t>lcma035</t>
-  </si>
-  <si>
-    <t>lcma053</t>
-  </si>
-  <si>
-    <t>lcma076</t>
-  </si>
-  <si>
-    <t>lcma090</t>
-  </si>
-  <si>
-    <t>Internal_Sample_ID</t>
-  </si>
-  <si>
-    <t>Celg074</t>
-  </si>
-  <si>
-    <t>Celg041</t>
-  </si>
-  <si>
-    <t>Celg037</t>
-  </si>
-  <si>
-    <t>Celg055</t>
-  </si>
-  <si>
-    <t>Celg036</t>
-  </si>
-  <si>
-    <t>Celg045</t>
-  </si>
-  <si>
-    <t>Celg067</t>
-  </si>
-  <si>
-    <t>Celg069</t>
-  </si>
-  <si>
-    <t>Celg068</t>
-  </si>
-  <si>
-    <t>Celg040</t>
-  </si>
-  <si>
-    <t>Celg073</t>
-  </si>
-  <si>
-    <t>Celg075</t>
-  </si>
-  <si>
-    <t>Celg052</t>
-  </si>
-  <si>
-    <t>Celg038</t>
-  </si>
-  <si>
-    <t>Celg065</t>
-  </si>
-  <si>
-    <t>Celg053</t>
-  </si>
-  <si>
-    <t>Celg064</t>
-  </si>
-  <si>
-    <t>Celg070</t>
-  </si>
-  <si>
-    <t>Celg078</t>
-  </si>
-  <si>
-    <t>Celg079</t>
-  </si>
-  <si>
-    <t>Celg059</t>
-  </si>
-  <si>
-    <t>Celg072</t>
-  </si>
-  <si>
-    <t>Celg071</t>
-  </si>
-  <si>
-    <t>Celg051</t>
-  </si>
-  <si>
-    <t>Celg057</t>
-  </si>
-  <si>
-    <t>Celg066</t>
-  </si>
-  <si>
-    <t>Celg063</t>
-  </si>
-  <si>
-    <t>Celg058</t>
-  </si>
-  <si>
-    <t>Celg047</t>
-  </si>
-  <si>
-    <t>Celg077</t>
-  </si>
-  <si>
-    <t>Celg049</t>
-  </si>
-  <si>
-    <t>Celg061</t>
-  </si>
-  <si>
-    <t>Celg062</t>
-  </si>
-  <si>
-    <t>Celg050</t>
-  </si>
-  <si>
-    <t>Celg044</t>
-  </si>
-  <si>
-    <t>Celg039</t>
-  </si>
-  <si>
-    <t>Celg048</t>
-  </si>
-  <si>
-    <t>Celg060</t>
-  </si>
-  <si>
-    <t>Celg042</t>
-  </si>
-  <si>
-    <t>Celg035</t>
-  </si>
-  <si>
-    <t>Celg046</t>
-  </si>
-  <si>
-    <t>Celg054</t>
-  </si>
-  <si>
-    <t>Celg043</t>
-  </si>
-  <si>
-    <t>Celg056</t>
-  </si>
-  <si>
-    <t>Celg083</t>
-  </si>
-  <si>
-    <t>Celg086</t>
-  </si>
-  <si>
-    <t>Celg080</t>
-  </si>
-  <si>
-    <t>Celg087</t>
-  </si>
-  <si>
-    <t>LcMa033</t>
-  </si>
-  <si>
-    <t>IOMa001</t>
-  </si>
-  <si>
-    <t>LcMa019</t>
-  </si>
-  <si>
-    <t>LcMa034</t>
-  </si>
-  <si>
-    <t>IOLA0140</t>
-  </si>
-  <si>
-    <t>LcMa085</t>
-  </si>
-  <si>
-    <t>LcMa086</t>
-  </si>
-  <si>
-    <t>IOMa010</t>
-  </si>
-  <si>
-    <t>IOLA0104</t>
-  </si>
-  <si>
-    <t>LcMa068</t>
-  </si>
-  <si>
-    <t>IOLA0139</t>
-  </si>
-  <si>
-    <t>IOMa015</t>
-  </si>
-  <si>
-    <t>LcMa087</t>
-  </si>
-  <si>
-    <t>LcMa008</t>
-  </si>
-  <si>
-    <t>IOLA0130</t>
-  </si>
-  <si>
-    <t>IOLA0114</t>
-  </si>
-  <si>
-    <t>IOLA0148</t>
-  </si>
-  <si>
-    <t>LcMa036</t>
-  </si>
-  <si>
-    <t>LcMa101</t>
-  </si>
-  <si>
-    <t>LcMa042</t>
-  </si>
-  <si>
-    <t>LcMa001</t>
-  </si>
-  <si>
-    <t>IOMa005</t>
-  </si>
-  <si>
-    <t>LcMa002</t>
-  </si>
-  <si>
-    <t>IOMa009</t>
-  </si>
-  <si>
-    <t>LcMa067</t>
-  </si>
-  <si>
-    <t>IOLA0138</t>
-  </si>
-  <si>
-    <t>IOLA0115</t>
-  </si>
-  <si>
-    <t>LcMa079</t>
-  </si>
-  <si>
-    <t>IOLA0117</t>
-  </si>
-  <si>
-    <t>IOMa016</t>
-  </si>
-  <si>
-    <t>IOLA0119</t>
-  </si>
-  <si>
-    <t>IOLA0097</t>
-  </si>
-  <si>
-    <t>LcMa091</t>
-  </si>
-  <si>
-    <t>LcMa054</t>
-  </si>
-  <si>
-    <t>LcMa057</t>
-  </si>
-  <si>
-    <t>LcMa071</t>
-  </si>
-  <si>
-    <t>LcMa077</t>
-  </si>
-  <si>
-    <t>LcMa078</t>
-  </si>
-  <si>
-    <t>LcMa082</t>
-  </si>
-  <si>
-    <t>IOMA041</t>
-  </si>
-  <si>
-    <t>IOMA038</t>
-  </si>
-  <si>
-    <t>IOMA037</t>
-  </si>
-  <si>
-    <t>IOMA036</t>
-  </si>
-  <si>
-    <t>IOMA035</t>
-  </si>
-  <si>
-    <t>IOMA083</t>
-  </si>
-  <si>
-    <t>IOMA078</t>
-  </si>
-  <si>
-    <t>IOMA100</t>
-  </si>
-  <si>
-    <t>LcMa064</t>
-  </si>
-  <si>
-    <t>LcMa065</t>
-  </si>
-  <si>
-    <t>IOMA047</t>
-  </si>
-  <si>
-    <t>IOMA043</t>
-  </si>
-  <si>
-    <t>IOMA034</t>
-  </si>
-  <si>
-    <t>IOMA054</t>
-  </si>
-  <si>
-    <t>IOMA032</t>
-  </si>
-  <si>
-    <t>IOMA055</t>
-  </si>
-  <si>
-    <t>IOMA031</t>
-  </si>
-  <si>
-    <t>IOMA071</t>
-  </si>
-  <si>
-    <t>LcMa070</t>
-  </si>
-  <si>
-    <t>LcMa081</t>
-  </si>
-  <si>
-    <t>IOMA090</t>
-  </si>
-  <si>
-    <t>LcMa092</t>
-  </si>
-  <si>
-    <t>LcMa051</t>
-  </si>
-  <si>
-    <t>IOLA0061</t>
-  </si>
-  <si>
-    <t>LcMa060</t>
-  </si>
-  <si>
-    <t>LcMa069</t>
-  </si>
-  <si>
-    <t>LcMa072</t>
-  </si>
-  <si>
-    <t>LcMa073</t>
-  </si>
-  <si>
-    <t>LcMa074</t>
-  </si>
-  <si>
-    <t>LcMa083</t>
-  </si>
-  <si>
-    <t>IOMA046</t>
-  </si>
-  <si>
-    <t>IOMA029</t>
-  </si>
-  <si>
-    <t>IOMA027</t>
-  </si>
-  <si>
-    <t>IOMA026</t>
-  </si>
-  <si>
-    <t>IOMA059</t>
-  </si>
-  <si>
-    <t>IOMA061</t>
-  </si>
-  <si>
-    <t>IOMA081</t>
-  </si>
-  <si>
-    <t>IOMA089</t>
-  </si>
-  <si>
-    <t>IOMA079</t>
-  </si>
-  <si>
-    <t>IOMA084</t>
-  </si>
-  <si>
-    <t>IOMA077</t>
-  </si>
-  <si>
-    <t>IOMA073</t>
-  </si>
-  <si>
-    <t>IOMA076</t>
-  </si>
-  <si>
-    <t>IOMA074</t>
-  </si>
-  <si>
-    <t>IOMA070</t>
-  </si>
-  <si>
-    <t>LcMa061</t>
-  </si>
-  <si>
-    <t>LcMa062</t>
-  </si>
-  <si>
-    <t>IOMA051</t>
-  </si>
-  <si>
-    <t>IOMA048</t>
-  </si>
-  <si>
-    <t>IOMA020</t>
-  </si>
-  <si>
-    <t>ioma64</t>
-  </si>
-  <si>
-    <t>IOMA065</t>
-  </si>
-  <si>
-    <t>IOMA066</t>
-  </si>
-  <si>
-    <t>IOMA093</t>
-  </si>
-  <si>
-    <t>IOMA099</t>
-  </si>
-  <si>
-    <t>LcMa080</t>
-  </si>
-  <si>
-    <t>IOMA044</t>
-  </si>
-  <si>
-    <t>IOMA068</t>
-  </si>
-  <si>
-    <t>IOMA094</t>
-  </si>
-  <si>
-    <t>IOMA096</t>
-  </si>
-  <si>
-    <t>IOMA018</t>
+    <t>IO_0001</t>
+  </si>
+  <si>
+    <t>IO_0002</t>
+  </si>
+  <si>
+    <t>IO_0003</t>
+  </si>
+  <si>
+    <t>IO_0004</t>
+  </si>
+  <si>
+    <t>IO_0005</t>
+  </si>
+  <si>
+    <t>IO_0006</t>
+  </si>
+  <si>
+    <t>IO_0007</t>
+  </si>
+  <si>
+    <t>IO_0008</t>
+  </si>
+  <si>
+    <t>IO_0009</t>
+  </si>
+  <si>
+    <t>IO_0010</t>
+  </si>
+  <si>
+    <t>IO_0011</t>
+  </si>
+  <si>
+    <t>IO_0012</t>
+  </si>
+  <si>
+    <t>IO_0013</t>
+  </si>
+  <si>
+    <t>IO_0014</t>
+  </si>
+  <si>
+    <t>IO_0015</t>
+  </si>
+  <si>
+    <t>IO_0016</t>
+  </si>
+  <si>
+    <t>IO_0017</t>
+  </si>
+  <si>
+    <t>IO_0018</t>
+  </si>
+  <si>
+    <t>IO_0019</t>
+  </si>
+  <si>
+    <t>IO_0020</t>
+  </si>
+  <si>
+    <t>IO_0021</t>
+  </si>
+  <si>
+    <t>IO_0022</t>
+  </si>
+  <si>
+    <t>IO_0023</t>
+  </si>
+  <si>
+    <t>IO_0024</t>
+  </si>
+  <si>
+    <t>IO_0025</t>
+  </si>
+  <si>
+    <t>IO_0026</t>
+  </si>
+  <si>
+    <t>IO_0027</t>
+  </si>
+  <si>
+    <t>IO_0028</t>
+  </si>
+  <si>
+    <t>IO_0029</t>
+  </si>
+  <si>
+    <t>IO_0030</t>
+  </si>
+  <si>
+    <t>IO_0031</t>
+  </si>
+  <si>
+    <t>IO_0032</t>
+  </si>
+  <si>
+    <t>IO_0033</t>
+  </si>
+  <si>
+    <t>IO_0034</t>
+  </si>
+  <si>
+    <t>IO_0035</t>
+  </si>
+  <si>
+    <t>IO_0036</t>
+  </si>
+  <si>
+    <t>IO_0037</t>
+  </si>
+  <si>
+    <t>IO_0038</t>
+  </si>
+  <si>
+    <t>IO_0039</t>
+  </si>
+  <si>
+    <t>IO_0040</t>
+  </si>
+  <si>
+    <t>IO_0041</t>
+  </si>
+  <si>
+    <t>IO_0042</t>
+  </si>
+  <si>
+    <t>IO_0043</t>
+  </si>
+  <si>
+    <t>IO_0044</t>
+  </si>
+  <si>
+    <t>IO_0045</t>
+  </si>
+  <si>
+    <t>IO_0046</t>
+  </si>
+  <si>
+    <t>IO_0047</t>
+  </si>
+  <si>
+    <t>IO_0048</t>
+  </si>
+  <si>
+    <t>IO_0049</t>
+  </si>
+  <si>
+    <t>IO_0050</t>
+  </si>
+  <si>
+    <t>IO_0051</t>
+  </si>
+  <si>
+    <t>IO_0052</t>
+  </si>
+  <si>
+    <t>IO_0053</t>
+  </si>
+  <si>
+    <t>IO_0054</t>
+  </si>
+  <si>
+    <t>IO_0055</t>
+  </si>
+  <si>
+    <t>IO_0056</t>
+  </si>
+  <si>
+    <t>IO_0057</t>
+  </si>
+  <si>
+    <t>IO_0058</t>
+  </si>
+  <si>
+    <t>IO_0059</t>
+  </si>
+  <si>
+    <t>IO_0060</t>
+  </si>
+  <si>
+    <t>IO_0061</t>
+  </si>
+  <si>
+    <t>IO_0062</t>
+  </si>
+  <si>
+    <t>IO_0063</t>
+  </si>
+  <si>
+    <t>IO_0064</t>
+  </si>
+  <si>
+    <t>IO_0065</t>
+  </si>
+  <si>
+    <t>IO_0066</t>
+  </si>
+  <si>
+    <t>IO_0067</t>
+  </si>
+  <si>
+    <t>IO_0068</t>
+  </si>
+  <si>
+    <t>IO_0069</t>
+  </si>
+  <si>
+    <t>IO_0070</t>
+  </si>
+  <si>
+    <t>IO_0071</t>
+  </si>
+  <si>
+    <t>IO_0072</t>
+  </si>
+  <si>
+    <t>IO_0073</t>
+  </si>
+  <si>
+    <t>IO_0074</t>
+  </si>
+  <si>
+    <t>IO_0075</t>
+  </si>
+  <si>
+    <t>IO_0076</t>
+  </si>
+  <si>
+    <t>IO_0077</t>
+  </si>
+  <si>
+    <t>IO_0078</t>
+  </si>
+  <si>
+    <t>IO_0079</t>
+  </si>
+  <si>
+    <t>IO_0080</t>
+  </si>
+  <si>
+    <t>IO_0081</t>
+  </si>
+  <si>
+    <t>IO_0082</t>
+  </si>
+  <si>
+    <t>IO_0083</t>
+  </si>
+  <si>
+    <t>IO_0084</t>
+  </si>
+  <si>
+    <t>IO_0085</t>
+  </si>
+  <si>
+    <t>IO_0086</t>
+  </si>
+  <si>
+    <t>IO_0087</t>
+  </si>
+  <si>
+    <t>IO_0088</t>
+  </si>
+  <si>
+    <t>IO_0089</t>
+  </si>
+  <si>
+    <t>IO_0090</t>
+  </si>
+  <si>
+    <t>IO_0091</t>
+  </si>
+  <si>
+    <t>IO_0092</t>
+  </si>
+  <si>
+    <t>IO_0093</t>
+  </si>
+  <si>
+    <t>IO_0094</t>
+  </si>
+  <si>
+    <t>IO_0095</t>
+  </si>
+  <si>
+    <t>IO_0096</t>
+  </si>
+  <si>
+    <t>IO_0097</t>
+  </si>
+  <si>
+    <t>IO_0098</t>
+  </si>
+  <si>
+    <t>IO_0099</t>
+  </si>
+  <si>
+    <t>IO_0100</t>
+  </si>
+  <si>
+    <t>IO_0101</t>
+  </si>
+  <si>
+    <t>IO_0102</t>
+  </si>
+  <si>
+    <t>IO_0103</t>
+  </si>
+  <si>
+    <t>IO_0104</t>
+  </si>
+  <si>
+    <t>IO_0105</t>
+  </si>
+  <si>
+    <t>IO_0106</t>
+  </si>
+  <si>
+    <t>IO_0107</t>
+  </si>
+  <si>
+    <t>IO_0108</t>
+  </si>
+  <si>
+    <t>IO_0109</t>
+  </si>
+  <si>
+    <t>IO_0110</t>
+  </si>
+  <si>
+    <t>IO_0111</t>
+  </si>
+  <si>
+    <t>IO_0112</t>
+  </si>
+  <si>
+    <t>IO_0113</t>
+  </si>
+  <si>
+    <t>IO_0114</t>
+  </si>
+  <si>
+    <t>IO_0115</t>
+  </si>
+  <si>
+    <t>IO_0116</t>
+  </si>
+  <si>
+    <t>IO_0117</t>
+  </si>
+  <si>
+    <t>IO_0118</t>
+  </si>
+  <si>
+    <t>IO_0119</t>
+  </si>
+  <si>
+    <t>IO_0120</t>
+  </si>
+  <si>
+    <t>IO_0121</t>
+  </si>
+  <si>
+    <t>IO_0122</t>
+  </si>
+  <si>
+    <t>IO_0123</t>
+  </si>
+  <si>
+    <t>IO_0124</t>
+  </si>
+  <si>
+    <t>IO_0125</t>
+  </si>
+  <si>
+    <t>IO_0126</t>
+  </si>
+  <si>
+    <t>IO_0127</t>
+  </si>
+  <si>
+    <t>IO_0128</t>
+  </si>
+  <si>
+    <t>IO_0129</t>
+  </si>
+  <si>
+    <t>IO_0130</t>
+  </si>
+  <si>
+    <t>IO_0131</t>
+  </si>
+  <si>
+    <t>IO_0132</t>
+  </si>
+  <si>
+    <t>IO_0133</t>
+  </si>
+  <si>
+    <t>IO_0134</t>
+  </si>
+  <si>
+    <t>IO_0135</t>
+  </si>
+  <si>
+    <t>IO_0136</t>
+  </si>
+  <si>
+    <t>IO_0137</t>
+  </si>
+  <si>
+    <t>IO_0138</t>
+  </si>
+  <si>
+    <t>IO_0139</t>
+  </si>
+  <si>
+    <t>IO_0140</t>
+  </si>
+  <si>
+    <t>IO_0141</t>
+  </si>
+  <si>
+    <t>IO_0142</t>
+  </si>
+  <si>
+    <t>IO_0143</t>
+  </si>
+  <si>
+    <t>IO_0144</t>
+  </si>
+  <si>
+    <t>IO_0145</t>
+  </si>
+  <si>
+    <t>IO_0146</t>
+  </si>
+  <si>
+    <t>IO_0147</t>
+  </si>
+  <si>
+    <t>IO_0148</t>
+  </si>
+  <si>
+    <t>IO_0149</t>
+  </si>
+  <si>
+    <t>IO_0150</t>
+  </si>
+  <si>
+    <t>IO_0151</t>
+  </si>
+  <si>
+    <t>IO_0152</t>
+  </si>
+  <si>
+    <t>IO_0153</t>
+  </si>
+  <si>
+    <t>IO_0154</t>
+  </si>
+  <si>
+    <t>IO_0155</t>
+  </si>
+  <si>
+    <t>IO_0156</t>
+  </si>
+  <si>
+    <t>IO_0157</t>
+  </si>
+  <si>
+    <t>IO_0158</t>
+  </si>
+  <si>
+    <t>IO_0159</t>
+  </si>
+  <si>
+    <t>IO_0160</t>
+  </si>
+  <si>
+    <t>IO_0161</t>
+  </si>
+  <si>
+    <t>IO_0162</t>
+  </si>
+  <si>
+    <t>IO_0163</t>
+  </si>
+  <si>
+    <t>IO_0164</t>
+  </si>
+  <si>
+    <t>IO_0165</t>
+  </si>
+  <si>
+    <t>IO_0166</t>
+  </si>
+  <si>
+    <t>IO_0167</t>
+  </si>
+  <si>
+    <t>IO_0168</t>
+  </si>
+  <si>
+    <t>IO_0169</t>
+  </si>
+  <si>
+    <t>IO_0170</t>
+  </si>
+  <si>
+    <t>IO_0171</t>
+  </si>
+  <si>
+    <t>IO_0172</t>
+  </si>
+  <si>
+    <t>IO_0173</t>
+  </si>
+  <si>
+    <t>IO_0174</t>
+  </si>
+  <si>
+    <t>IO_0175</t>
+  </si>
+  <si>
+    <t>IO_0176</t>
+  </si>
+  <si>
+    <t>IO_0177</t>
+  </si>
+  <si>
+    <t>IO_0178</t>
+  </si>
+  <si>
+    <t>IO_0179</t>
+  </si>
+  <si>
+    <t>IO_0180</t>
+  </si>
+  <si>
+    <t>IO_0181</t>
+  </si>
+  <si>
+    <t>IO_0182</t>
+  </si>
+  <si>
+    <t>IO_0183</t>
+  </si>
+  <si>
+    <t>IO_0184</t>
+  </si>
+  <si>
+    <t>IO_0185</t>
+  </si>
+  <si>
+    <t>IO_0186</t>
+  </si>
+  <si>
+    <t>IO_0187</t>
+  </si>
+  <si>
+    <t>IO_0188</t>
+  </si>
+  <si>
+    <t>IO_0189</t>
+  </si>
+  <si>
+    <t>IO_0190</t>
+  </si>
+  <si>
+    <t>IO_0191</t>
+  </si>
+  <si>
+    <t>IO_0192</t>
+  </si>
+  <si>
+    <t>IO_0193</t>
+  </si>
+  <si>
+    <t>IO_0194</t>
+  </si>
+  <si>
+    <t>IO_0195</t>
+  </si>
+  <si>
+    <t>IO_0196</t>
+  </si>
+  <si>
+    <t>IO_0197</t>
+  </si>
+  <si>
+    <t>IO_0198</t>
+  </si>
+  <si>
+    <t>IO_0199</t>
+  </si>
+  <si>
+    <t>IO_0200</t>
+  </si>
+  <si>
+    <t>IO_0201</t>
+  </si>
+  <si>
+    <t>IO_0202</t>
+  </si>
+  <si>
+    <t>IO_0203</t>
+  </si>
+  <si>
+    <t>IO_0204</t>
+  </si>
+  <si>
+    <t>IO_0205</t>
+  </si>
+  <si>
+    <t>IO_0206</t>
+  </si>
+  <si>
+    <t>IO_0207</t>
+  </si>
+  <si>
+    <t>IO_0208</t>
+  </si>
+  <si>
+    <t>IO_0209</t>
+  </si>
+  <si>
+    <t>IO_0210</t>
+  </si>
+  <si>
+    <t>IO_0211</t>
+  </si>
+  <si>
+    <t>IO_0212</t>
+  </si>
+  <si>
+    <t>IO_0213</t>
+  </si>
+  <si>
+    <t>IO_0214</t>
+  </si>
+  <si>
+    <t>IO_0215</t>
+  </si>
+  <si>
+    <t>IO_0216</t>
+  </si>
+  <si>
+    <t>IO_0217</t>
+  </si>
+  <si>
+    <t>IO_0218</t>
+  </si>
+  <si>
+    <t>IO_0219</t>
+  </si>
+  <si>
+    <t>IO_0220</t>
+  </si>
+  <si>
+    <t>IO_0221</t>
+  </si>
+  <si>
+    <t>IO_0222</t>
+  </si>
+  <si>
+    <t>IO_0223</t>
+  </si>
+  <si>
+    <t>IO_0224</t>
+  </si>
+  <si>
+    <t>IO_0225</t>
+  </si>
+  <si>
+    <t>IO_0226</t>
+  </si>
+  <si>
+    <t>IO_0227</t>
+  </si>
+  <si>
+    <t>IO_0228</t>
+  </si>
+  <si>
+    <t>IO_0229</t>
+  </si>
+  <si>
+    <t>Sample_ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -762,6 +762,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -772,6 +773,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -797,8 +804,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,7 +819,34 @@
     <cellStyle name="Normal 3" xfId="3" xr:uid="{D61B9978-ABD7-B046-BF15-2005B535877E}"/>
     <cellStyle name="Normal 8" xfId="1" xr:uid="{9BEDB055-840E-034B-9ACC-135B9B00246F}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -820,17 +860,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:I230" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{58692302-29AD-1F46-AE02-2BE0F0E8E884}" name="Table32" displayName="Table32" ref="A1:I230" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Internal_Sample_ID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="obd148-q893.q895-p893"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="obd189-q05.q07-p05"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="obd189-q29.q31-p31"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="obd189-q49.q51-p49"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="obd189-q53.q55-p53"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="obd189-q57.q59-p57"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="obd189-q65.q67-p65"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="obd189-q81.q83-p81"/>
+    <tableColumn id="10" xr3:uid="{F6426EA6-25A7-4941-9ECB-63F4BB6323B3}" name="Sample_ID" dataDxfId="0" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{CB528568-19B4-9040-834E-6D3347956BCC}" name="obd148-q893.q895-p893"/>
+    <tableColumn id="3" xr3:uid="{383AF873-1EDE-0040-8C14-0F2121C317D7}" name="obd189-q05.q07-p05"/>
+    <tableColumn id="4" xr3:uid="{A52BA4FB-5999-E64C-806C-23E6F32D3934}" name="obd189-q29.q31-p31"/>
+    <tableColumn id="5" xr3:uid="{9D3A67EC-B5EA-1F42-BFFA-5E2AB3649FA6}" name="obd189-q49.q51-p49"/>
+    <tableColumn id="6" xr3:uid="{97702548-B7C4-6043-A868-891AF96F9C28}" name="obd189-q53.q55-p53"/>
+    <tableColumn id="7" xr3:uid="{CBB9A78E-019F-C04E-A21E-F49BE0224FE6}" name="obd189-q57.q59-p57"/>
+    <tableColumn id="8" xr3:uid="{2E44D51D-BA15-5448-99AF-66BFEB282BEB}" name="obd189-q65.q67-p65"/>
+    <tableColumn id="9" xr3:uid="{859FDADF-9962-F74C-B382-ADC2C71AF4C9}" name="obd189-q81.q83-p81"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1118,12 +1158,12 @@
   <dimension ref="A1:I230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A230"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="83.1640625" bestFit="1" customWidth="1"/>
@@ -1140,8 +1180,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>89</v>
+      <c r="A1" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1169,8 +1209,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>94</v>
+      <c r="A2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B2">
         <v>22</v>
@@ -1198,8 +1238,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>95</v>
+      <c r="A3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B3">
         <v>22</v>
@@ -1227,8 +1267,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>118</v>
+      <c r="A4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B4">
         <v>22.5</v>
@@ -1256,8 +1296,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>126</v>
+      <c r="A5" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B5">
         <v>20.5</v>
@@ -1285,8 +1325,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>110</v>
+      <c r="A6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B6">
         <v>23</v>
@@ -1314,8 +1354,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>115</v>
+      <c r="A7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B7">
         <v>21.5</v>
@@ -1343,8 +1383,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>107</v>
+      <c r="A8" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B8">
         <v>24</v>
@@ -1372,8 +1412,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>112</v>
+      <c r="A9" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B9">
         <v>24</v>
@@ -1401,8 +1441,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>90</v>
+      <c r="A10" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B10">
         <v>24.5</v>
@@ -1430,8 +1470,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>119</v>
+      <c r="A11" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B11">
         <v>23.5</v>
@@ -1459,8 +1499,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>108</v>
+      <c r="A12" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B12">
         <v>21</v>
@@ -1488,8 +1528,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>134</v>
+      <c r="A13" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B13">
         <v>24</v>
@@ -1517,8 +1557,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>137</v>
+      <c r="A14" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B14">
         <v>21.5</v>
@@ -1546,8 +1586,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>8</v>
+      <c r="A15" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B15">
         <v>21</v>
@@ -1575,8 +1615,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>9</v>
+      <c r="A16" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B16">
         <v>24</v>
@@ -1604,8 +1644,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>10</v>
+      <c r="A17" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B17">
         <v>21</v>
@@ -1633,8 +1673,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>11</v>
+      <c r="A18" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B18">
         <v>21</v>
@@ -1662,8 +1702,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>12</v>
+      <c r="A19" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B19">
         <v>24</v>
@@ -1691,8 +1731,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>13</v>
+      <c r="A20" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B20">
         <v>24</v>
@@ -1720,8 +1760,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>14</v>
+      <c r="A21" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B21">
         <v>22</v>
@@ -1749,8 +1789,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>15</v>
+      <c r="A22" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -1778,8 +1818,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>16</v>
+      <c r="A23" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -1807,8 +1847,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>17</v>
+      <c r="A24" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B24">
         <v>24</v>
@@ -1836,8 +1876,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>18</v>
+      <c r="A25" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -1865,8 +1905,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>19</v>
+      <c r="A26" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B26">
         <v>22.5</v>
@@ -1894,8 +1934,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>20</v>
+      <c r="A27" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B27">
         <v>24</v>
@@ -1923,8 +1963,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>21</v>
+      <c r="A28" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B28">
         <v>18.5</v>
@@ -1952,8 +1992,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>22</v>
+      <c r="A29" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B29">
         <v>23</v>
@@ -1981,8 +2021,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>23</v>
+      <c r="A30" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B30">
         <v>24</v>
@@ -2010,8 +2050,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>24</v>
+      <c r="A31" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B31">
         <v>21.5</v>
@@ -2039,8 +2079,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>25</v>
+      <c r="A32" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B32">
         <v>21.5</v>
@@ -2068,8 +2108,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>26</v>
+      <c r="A33" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B33">
         <v>20.5</v>
@@ -2097,8 +2137,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>27</v>
+      <c r="A34" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B34">
         <v>21.5</v>
@@ -2126,8 +2166,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>28</v>
+      <c r="A35" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B35">
         <v>24.5</v>
@@ -2155,8 +2195,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>29</v>
+      <c r="A36" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B36">
         <v>24</v>
@@ -2184,8 +2224,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>30</v>
+      <c r="A37" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B37">
         <v>22.5</v>
@@ -2213,8 +2253,8 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>31</v>
+      <c r="A38" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B38">
         <v>21.5</v>
@@ -2242,8 +2282,8 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>32</v>
+      <c r="A39" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B39">
         <v>23.5</v>
@@ -2271,8 +2311,8 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>33</v>
+      <c r="A40" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B40">
         <v>22</v>
@@ -2300,8 +2340,8 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>34</v>
+      <c r="A41" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B41">
         <v>23</v>
@@ -2329,8 +2369,8 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>35</v>
+      <c r="A42" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B42">
         <v>21</v>
@@ -2358,8 +2398,8 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>36</v>
+      <c r="A43" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B43">
         <v>21</v>
@@ -2387,8 +2427,8 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>37</v>
+      <c r="A44" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B44">
         <v>23.5</v>
@@ -2416,8 +2456,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>38</v>
+      <c r="A45" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B45">
         <v>27</v>
@@ -2445,8 +2485,8 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>39</v>
+      <c r="A46" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B46">
         <v>21.5</v>
@@ -2474,8 +2514,8 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>40</v>
+      <c r="A47" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B47">
         <v>23.5</v>
@@ -2503,8 +2543,8 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>41</v>
+      <c r="A48" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B48">
         <v>16.5</v>
@@ -2532,8 +2572,8 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>42</v>
+      <c r="A49" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B49">
         <v>23</v>
@@ -2561,8 +2601,8 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>43</v>
+      <c r="A50" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B50">
         <v>23</v>
@@ -2590,8 +2630,8 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>44</v>
+      <c r="A51" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B51">
         <v>23.5</v>
@@ -2619,8 +2659,8 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>45</v>
+      <c r="A52" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B52">
         <v>22</v>
@@ -2648,8 +2688,8 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>46</v>
+      <c r="A53" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B53">
         <v>22.5</v>
@@ -2677,8 +2717,8 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>47</v>
+      <c r="A54" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B54">
         <v>22</v>
@@ -2706,8 +2746,8 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>48</v>
+      <c r="A55" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B55">
         <v>24</v>
@@ -2735,8 +2775,8 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>49</v>
+      <c r="A56" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B56">
         <v>22.5</v>
@@ -2764,8 +2804,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>50</v>
+      <c r="A57" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B57">
         <v>22</v>
@@ -2793,8 +2833,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>51</v>
+      <c r="A58" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B58">
         <v>22</v>
@@ -2822,8 +2862,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>227</v>
+      <c r="A59" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B59">
         <v>23</v>
@@ -2851,8 +2891,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>52</v>
+      <c r="A60" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B60">
         <v>23</v>
@@ -2880,8 +2920,8 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>53</v>
+      <c r="A61" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B61">
         <v>25</v>
@@ -2909,8 +2949,8 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>54</v>
+      <c r="A62" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B62">
         <v>27</v>
@@ -2938,8 +2978,8 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>55</v>
+      <c r="A63" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B63">
         <v>26.5</v>
@@ -2967,8 +3007,8 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>56</v>
+      <c r="A64" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B64">
         <v>22</v>
@@ -2996,8 +3036,8 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>57</v>
+      <c r="A65" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B65">
         <v>23</v>
@@ -3025,8 +3065,8 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>58</v>
+      <c r="A66" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B66">
         <v>21.5</v>
@@ -3054,8 +3094,8 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>59</v>
+      <c r="A67" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B67">
         <v>21.5</v>
@@ -3083,8 +3123,8 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>60</v>
+      <c r="A68" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B68">
         <v>25.5</v>
@@ -3112,8 +3152,8 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>61</v>
+      <c r="A69" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B69">
         <v>22</v>
@@ -3141,8 +3181,8 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>62</v>
+      <c r="A70" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B70">
         <v>24.5</v>
@@ -3170,8 +3210,8 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>63</v>
+      <c r="A71" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B71">
         <v>23</v>
@@ -3199,8 +3239,8 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>64</v>
+      <c r="A72" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B72">
         <v>23.5</v>
@@ -3228,8 +3268,8 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>65</v>
+      <c r="A73" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B73">
         <v>27</v>
@@ -3257,8 +3297,8 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>66</v>
+      <c r="A74" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B74">
         <v>21.5</v>
@@ -3286,8 +3326,8 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>67</v>
+      <c r="A75" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B75">
         <v>23.5</v>
@@ -3315,8 +3355,8 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>68</v>
+      <c r="A76" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B76">
         <v>23</v>
@@ -3344,8 +3384,8 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>69</v>
+      <c r="A77" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B77">
         <v>23</v>
@@ -3373,8 +3413,8 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>70</v>
+      <c r="A78" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B78">
         <v>24.5</v>
@@ -3402,8 +3442,8 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>92</v>
+      <c r="A79" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="B79">
         <v>29</v>
@@ -3431,8 +3471,8 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>128</v>
+      <c r="A80" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B80">
         <v>24</v>
@@ -3460,8 +3500,8 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>132</v>
+      <c r="A81" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B81">
         <v>23.5</v>
@@ -3489,8 +3529,8 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>122</v>
+      <c r="A82" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B82">
         <v>25</v>
@@ -3518,8 +3558,8 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>101</v>
+      <c r="A83" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B83">
         <v>24</v>
@@ -3547,8 +3587,8 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>109</v>
+      <c r="A84" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B84">
         <v>22.5</v>
@@ -3576,8 +3616,8 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>71</v>
+      <c r="A85" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B85">
         <v>21</v>
@@ -3605,8 +3645,8 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>72</v>
+      <c r="A86" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B86">
         <v>23</v>
@@ -3634,8 +3674,8 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>73</v>
+      <c r="A87" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B87">
         <v>23.5</v>
@@ -3663,8 +3703,8 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>74</v>
+      <c r="A88" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="B88">
         <v>22</v>
@@ -3692,8 +3732,8 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>75</v>
+      <c r="A89" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B89">
         <v>22.5</v>
@@ -3721,8 +3761,8 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>76</v>
+      <c r="A90" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B90">
         <v>22.5</v>
@@ -3750,8 +3790,8 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>77</v>
+      <c r="A91" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="B91">
         <v>23</v>
@@ -3779,8 +3819,8 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>78</v>
+      <c r="A92" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="B92">
         <v>24.5</v>
@@ -3808,8 +3848,8 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>79</v>
+      <c r="A93" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="B93">
         <v>22</v>
@@ -3837,8 +3877,8 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>80</v>
+      <c r="A94" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="B94">
         <v>21</v>
@@ -3866,8 +3906,8 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>81</v>
+      <c r="A95" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B95">
         <v>24</v>
@@ -3895,8 +3935,8 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>82</v>
+      <c r="A96" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B96">
         <v>24</v>
@@ -3924,8 +3964,8 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>83</v>
+      <c r="A97" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B97">
         <v>21</v>
@@ -3953,8 +3993,8 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>84</v>
+      <c r="A98" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B98">
         <v>23.5</v>
@@ -3982,8 +4022,8 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>85</v>
+      <c r="A99" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B99">
         <v>23</v>
@@ -4011,8 +4051,8 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>86</v>
+      <c r="A100" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B100">
         <v>23</v>
@@ -4040,8 +4080,8 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>87</v>
+      <c r="A101" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B101">
         <v>21.5</v>
@@ -4069,8 +4109,8 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>88</v>
+      <c r="A102" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B102">
         <v>22.5</v>
@@ -4098,8 +4138,8 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>173</v>
+      <c r="A103" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B103">
         <v>22.5</v>
@@ -4127,8 +4167,8 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>174</v>
+      <c r="A104" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B104">
         <v>22</v>
@@ -4156,8 +4196,8 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>175</v>
+      <c r="A105" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="B105">
         <v>23</v>
@@ -4185,8 +4225,8 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>165</v>
+      <c r="A106" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B106">
         <v>23</v>
@@ -4214,8 +4254,8 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>176</v>
+      <c r="A107" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B107">
         <v>29</v>
@@ -4243,8 +4283,8 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>200</v>
+      <c r="A108" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="B108">
         <v>29</v>
@@ -4272,8 +4312,8 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>146</v>
+      <c r="A109" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="B109">
         <v>22</v>
@@ -4301,8 +4341,8 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>148</v>
+      <c r="A110" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B110">
         <v>24</v>
@@ -4330,8 +4370,8 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>142</v>
+      <c r="A111" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B111">
         <v>25</v>
@@ -4359,8 +4399,8 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>161</v>
+      <c r="A112" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B112">
         <v>24</v>
@@ -4388,8 +4428,8 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>145</v>
+      <c r="A113" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B113">
         <v>21.5</v>
@@ -4417,8 +4457,8 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>149</v>
+      <c r="A114" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B114">
         <v>22</v>
@@ -4446,8 +4486,8 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>226</v>
+      <c r="A115" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="B115">
         <v>24.5</v>
@@ -4475,8 +4515,8 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>210</v>
+      <c r="A116" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B116">
         <v>22</v>
@@ -4504,8 +4544,8 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>209</v>
+      <c r="A117" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="B117">
         <v>21</v>
@@ -4533,8 +4573,8 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>208</v>
+      <c r="A118" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="B118">
         <v>23</v>
@@ -4562,8 +4602,8 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>193</v>
+      <c r="A119" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="B119">
         <v>20.5</v>
@@ -4591,8 +4631,8 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>191</v>
+      <c r="A120" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="B120">
         <v>23</v>
@@ -4620,8 +4660,8 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>181</v>
+      <c r="A121" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="B121">
         <v>22.5</v>
@@ -4649,8 +4689,8 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>180</v>
+      <c r="A122" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B122">
         <v>23</v>
@@ -4678,8 +4718,8 @@
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>179</v>
+      <c r="A123" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="B123">
         <v>22</v>
@@ -4707,8 +4747,8 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>177</v>
+      <c r="A124" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="B124">
         <v>21.5</v>
@@ -4736,8 +4776,8 @@
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>188</v>
+      <c r="A125" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="B125">
         <v>25</v>
@@ -4765,8 +4805,8 @@
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>207</v>
+      <c r="A126" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="B126">
         <v>22.5</v>
@@ -4794,8 +4834,8 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>187</v>
+      <c r="A127" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="B127">
         <v>22</v>
@@ -4823,8 +4863,8 @@
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>190</v>
+      <c r="A128" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="B128">
         <v>24</v>
@@ -4852,8 +4892,8 @@
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>192</v>
+      <c r="A129" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="B129">
         <v>23</v>
@@ -4881,8 +4921,8 @@
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>212</v>
+      <c r="A130" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B130">
         <v>23</v>
@@ -4910,8 +4950,8 @@
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>234</v>
+      <c r="A131" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="B131">
         <v>24</v>
@@ -4939,8 +4979,8 @@
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>194</v>
+      <c r="A132" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="B132">
         <v>24.5</v>
@@ -4968,8 +5008,8 @@
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>213</v>
+      <c r="A133" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="B133">
         <v>25</v>
@@ -4997,8 +5037,8 @@
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>214</v>
+      <c r="A134" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="B134">
         <v>24</v>
@@ -5026,8 +5066,8 @@
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>230</v>
+      <c r="A135" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="B135">
         <v>29</v>
@@ -5055,8 +5095,8 @@
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>231</v>
+      <c r="A136" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="B136">
         <v>21.5</v>
@@ -5084,8 +5124,8 @@
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>160</v>
+      <c r="A137" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="B137">
         <v>24.5</v>
@@ -5113,8 +5153,8 @@
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>140</v>
+      <c r="A138" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="B138">
         <v>24</v>
@@ -5142,8 +5182,8 @@
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>138</v>
+      <c r="A139" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="B139">
         <v>29</v>
@@ -5171,8 +5211,8 @@
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>199</v>
+      <c r="A140" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B140">
         <v>23.5</v>
@@ -5200,8 +5240,8 @@
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>171</v>
+      <c r="A141" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B141">
         <v>23.5</v>
@@ -5229,8 +5269,8 @@
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>201</v>
+      <c r="A142" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="B142">
         <v>22.5</v>
@@ -5258,8 +5298,8 @@
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>222</v>
+      <c r="A143" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="B143">
         <v>25</v>
@@ -5287,8 +5327,8 @@
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>223</v>
+      <c r="A144" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="B144">
         <v>23</v>
@@ -5316,8 +5356,8 @@
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>185</v>
+      <c r="A145" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="B145">
         <v>24</v>
@@ -5345,8 +5385,8 @@
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>147</v>
+      <c r="A146" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="B146">
         <v>29</v>
@@ -5374,8 +5414,8 @@
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>202</v>
+      <c r="A147" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="B147">
         <v>25</v>
@@ -5403,8 +5443,8 @@
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>195</v>
+      <c r="A148" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="B148">
         <v>24</v>
@@ -5432,8 +5472,8 @@
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>203</v>
+      <c r="A149" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="B149">
         <v>23.5</v>
@@ -5461,8 +5501,8 @@
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>204</v>
+      <c r="A150" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="B150">
         <v>25.5</v>
@@ -5490,8 +5530,8 @@
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>205</v>
+      <c r="A151" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="B151">
         <v>25</v>
@@ -5519,8 +5559,8 @@
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>143</v>
+      <c r="A152" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="B152">
         <v>24.5</v>
@@ -5548,8 +5588,8 @@
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>144</v>
+      <c r="A153" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="B153">
         <v>23.5</v>
@@ -5577,8 +5617,8 @@
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>150</v>
+      <c r="A154" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="B154">
         <v>22</v>
@@ -5606,8 +5646,8 @@
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>170</v>
+      <c r="A155" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="B155">
         <v>25</v>
@@ -5635,8 +5675,8 @@
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>198</v>
+      <c r="A156" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="B156">
         <v>23</v>
@@ -5664,8 +5704,8 @@
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>183</v>
+      <c r="A157" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="B157">
         <v>24.5</v>
@@ -5693,8 +5733,8 @@
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>182</v>
+      <c r="A158" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="B158">
         <v>24</v>
@@ -5722,8 +5762,8 @@
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>184</v>
+      <c r="A159" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="B159">
         <v>24</v>
@@ -5751,8 +5791,8 @@
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>215</v>
+      <c r="A160" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="B160">
         <v>23</v>
@@ -5780,8 +5820,8 @@
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>169</v>
+      <c r="A161" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="B161">
         <v>23.5</v>
@@ -5809,8 +5849,8 @@
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>153</v>
+      <c r="A162" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="B162">
         <v>22</v>
@@ -5838,8 +5878,8 @@
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>164</v>
+      <c r="A163" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="B163">
         <v>22</v>
@@ -5867,8 +5907,8 @@
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>166</v>
+      <c r="A164" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="B164">
         <v>21</v>
@@ -5896,8 +5936,8 @@
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>168</v>
+      <c r="A165" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="B165">
         <v>23.5</v>
@@ -5925,8 +5965,8 @@
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>152</v>
+      <c r="A166" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="B166">
         <v>29</v>
@@ -5954,8 +5994,8 @@
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>163</v>
+      <c r="A167" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="B167">
         <v>24.5</v>
@@ -5983,8 +6023,8 @@
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>154</v>
+      <c r="A168" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="B168">
         <v>19.5</v>
@@ -6012,8 +6052,8 @@
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>139</v>
+      <c r="A169" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="B169">
         <v>29</v>
@@ -6041,8 +6081,8 @@
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>159</v>
+      <c r="A170" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="B170">
         <v>24</v>
@@ -6070,8 +6110,8 @@
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>167</v>
+      <c r="A171" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="B171">
         <v>23</v>
@@ -6099,8 +6139,8 @@
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>189</v>
+      <c r="A172" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="B172">
         <v>24</v>
@@ -6128,8 +6168,8 @@
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>225</v>
+      <c r="A173" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="B173">
         <v>22.5</v>
@@ -6157,8 +6197,8 @@
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>211</v>
+      <c r="A174" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="B174">
         <v>29</v>
@@ -6186,8 +6226,8 @@
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>228</v>
+      <c r="A175" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="B175">
         <v>26</v>
@@ -6215,8 +6255,8 @@
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>229</v>
+      <c r="A176" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="B176">
         <v>22</v>
@@ -6244,8 +6284,8 @@
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>221</v>
+      <c r="A177" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="B177">
         <v>21</v>
@@ -6273,8 +6313,8 @@
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>218</v>
+      <c r="A178" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="B178">
         <v>23</v>
@@ -6302,8 +6342,8 @@
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>220</v>
+      <c r="A179" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="B179">
         <v>22.5</v>
@@ -6331,8 +6371,8 @@
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>219</v>
+      <c r="A180" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B180">
         <v>25</v>
@@ -6360,8 +6400,8 @@
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>217</v>
+      <c r="A181" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="B181">
         <v>22.5</v>
@@ -6389,8 +6429,8 @@
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>216</v>
+      <c r="A182" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="B182">
         <v>25.5</v>
@@ -6418,8 +6458,8 @@
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>197</v>
+      <c r="A183" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="B183">
         <v>22.5</v>
@@ -6447,8 +6487,8 @@
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>235</v>
+      <c r="A184" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="B184">
         <v>23</v>
@@ -6476,8 +6516,8 @@
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>236</v>
+      <c r="A185" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="B185">
         <v>21.5</v>
@@ -6505,8 +6545,8 @@
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>158</v>
+      <c r="A186" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="B186">
         <v>25</v>
@@ -6534,8 +6574,8 @@
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>151</v>
+      <c r="A187" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="B187">
         <v>24</v>
@@ -6563,8 +6603,8 @@
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>141</v>
+      <c r="A188" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="B188">
         <v>23.5</v>
@@ -6592,8 +6632,8 @@
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>155</v>
+      <c r="A189" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="B189">
         <v>23</v>
@@ -6621,8 +6661,8 @@
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>157</v>
+      <c r="A190" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="B190">
         <v>29</v>
@@ -6650,8 +6690,8 @@
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>172</v>
+      <c r="A191" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="B191">
         <v>23.5</v>
@@ -6679,8 +6719,8 @@
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>186</v>
+      <c r="A192" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="B192">
         <v>26.5</v>
@@ -6708,8 +6748,8 @@
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>232</v>
+      <c r="A193" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="B193">
         <v>23.5</v>
@@ -6737,8 +6777,8 @@
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>196</v>
+      <c r="A194" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="B194">
         <v>22</v>
@@ -6766,8 +6806,8 @@
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>206</v>
+      <c r="A195" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="B195">
         <v>22</v>
@@ -6795,8 +6835,8 @@
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>156</v>
+      <c r="A196" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B196">
         <v>23</v>
@@ -6824,8 +6864,8 @@
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>237</v>
+      <c r="A197" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="B197">
         <v>21</v>
@@ -6853,8 +6893,8 @@
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>178</v>
+      <c r="A198" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="B198">
         <v>23</v>
@@ -6882,8 +6922,8 @@
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>233</v>
+      <c r="A199" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="B199">
         <v>22</v>
@@ -6911,8 +6951,8 @@
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>224</v>
+      <c r="A200" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="B200">
         <v>22</v>
@@ -6940,8 +6980,8 @@
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>162</v>
+      <c r="A201" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="B201">
         <v>25</v>
@@ -6969,8 +7009,8 @@
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>103</v>
+      <c r="A202" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="B202">
         <v>23.5</v>
@@ -6998,8 +7038,8 @@
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>99</v>
+      <c r="A203" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="B203">
         <v>23</v>
@@ -7027,8 +7067,8 @@
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>91</v>
+      <c r="A204" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="B204">
         <v>24</v>
@@ -7056,8 +7096,8 @@
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>124</v>
+      <c r="A205" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="B205">
         <v>24.5</v>
@@ -7085,8 +7125,8 @@
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>130</v>
+      <c r="A206" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="B206">
         <v>25</v>
@@ -7114,8 +7154,8 @@
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>120</v>
+      <c r="A207" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="B207">
         <v>24.5</v>
@@ -7143,8 +7183,8 @@
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>123</v>
+      <c r="A208" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="B208">
         <v>25</v>
@@ -7172,8 +7212,8 @@
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>131</v>
+      <c r="A209" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="B209">
         <v>20.5</v>
@@ -7201,8 +7241,8 @@
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>93</v>
+      <c r="A210" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="B210">
         <v>24</v>
@@ -7230,8 +7270,8 @@
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>133</v>
+      <c r="A211" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="B211">
         <v>23</v>
@@ -7259,8 +7299,8 @@
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>114</v>
+      <c r="A212" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="B212">
         <v>23</v>
@@ -7288,8 +7328,8 @@
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>117</v>
+      <c r="A213" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="B213">
         <v>22</v>
@@ -7317,8 +7357,8 @@
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>121</v>
+      <c r="A214" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="B214">
         <v>24</v>
@@ -7346,8 +7386,8 @@
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>116</v>
+      <c r="A215" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="B215">
         <v>23.5</v>
@@ -7375,8 +7415,8 @@
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>106</v>
+      <c r="A216" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="B216">
         <v>23</v>
@@ -7404,8 +7444,8 @@
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>104</v>
+      <c r="A217" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="B217">
         <v>22</v>
@@ -7433,8 +7473,8 @@
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>98</v>
+      <c r="A218" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="B218">
         <v>23</v>
@@ -7462,8 +7502,8 @@
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>97</v>
+      <c r="A219" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="B219">
         <v>23.5</v>
@@ -7491,8 +7531,8 @@
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>111</v>
+      <c r="A220" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="B220">
         <v>23</v>
@@ -7520,8 +7560,8 @@
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>136</v>
+      <c r="A221" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="B221">
         <v>24</v>
@@ -7549,8 +7589,8 @@
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>129</v>
+      <c r="A222" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="B222">
         <v>23.5</v>
@@ -7578,8 +7618,8 @@
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>125</v>
+      <c r="A223" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="B223">
         <v>23</v>
@@ -7607,8 +7647,8 @@
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>113</v>
+      <c r="A224" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="B224">
         <v>25</v>
@@ -7636,8 +7676,8 @@
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>102</v>
+      <c r="A225" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="B225">
         <v>24</v>
@@ -7665,8 +7705,8 @@
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>105</v>
+      <c r="A226" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="B226">
         <v>24</v>
@@ -7694,8 +7734,8 @@
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>127</v>
+      <c r="A227" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="B227">
         <v>22</v>
@@ -7723,8 +7763,8 @@
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>96</v>
+      <c r="A228" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="B228">
         <v>23.5</v>
@@ -7752,8 +7792,8 @@
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>100</v>
+      <c r="A229" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="B229">
         <v>29</v>
@@ -7781,8 +7821,8 @@
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>135</v>
+      <c r="A230" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="B230">
         <v>22</v>
@@ -7810,6 +7850,9 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A230">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
